--- a/all2Unicode.xlsx
+++ b/all2Unicode.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mamitry/Development/coptic-font-2-unicode/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mamitry/Development/coptic-font-unicode-converter/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8562E19A-A3CD-F744-9532-1D89D87CB810}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5E1ACD1-D7E6-F043-A6A0-2C785422122D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-30080" yWindow="1460" windowWidth="34880" windowHeight="26780" tabRatio="366" xr2:uid="{647D3334-B837-402E-9AD8-21EF25FBD15F}"/>
+    <workbookView xWindow="5520" yWindow="2020" windowWidth="34880" windowHeight="26780" tabRatio="366" xr2:uid="{647D3334-B837-402E-9AD8-21EF25FBD15F}"/>
   </bookViews>
   <sheets>
     <sheet name="mapping" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2825" uniqueCount="572">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2828" uniqueCount="575">
   <si>
     <t>&gt;</t>
   </si>
@@ -1816,6 +1816,15 @@
   </si>
   <si>
     <t>PISHOI</t>
+  </si>
+  <si>
+    <t>⳪</t>
+  </si>
+  <si>
+    <t>⳥</t>
+  </si>
+  <si>
+    <t>ⳮ</t>
   </si>
 </sst>
 </file>
@@ -2830,7 +2839,7 @@
       <selection activeCell="I75" sqref="I75"/>
       <selection pane="topRight" activeCell="I75" sqref="I75"/>
       <selection pane="bottomLeft" activeCell="I75" sqref="I75"/>
-      <selection pane="bottomRight" activeCell="E109" sqref="E109"/>
+      <selection pane="bottomRight" activeCell="E112" sqref="E112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.1640625" defaultRowHeight="15"/>
@@ -9016,7 +9025,7 @@
       <c r="AE64" s="49"/>
       <c r="AF64" s="50"/>
     </row>
-    <row r="65" spans="1:32" ht="17">
+    <row r="65" spans="1:32">
       <c r="A65" s="1" t="s">
         <v>343</v>
       </c>
@@ -11913,7 +11922,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="106" spans="1:32" ht="18">
+    <row r="106" spans="1:32" ht="17">
       <c r="A106" s="1" t="s">
         <v>331</v>
       </c>
@@ -12145,14 +12154,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:32" ht="17">
+    <row r="110" spans="1:32">
       <c r="A110" s="1" t="s">
         <v>448</v>
       </c>
       <c r="B110" s="125"/>
       <c r="C110" s="125"/>
       <c r="D110" s="125"/>
-      <c r="E110" s="124"/>
+      <c r="E110" s="124" t="s">
+        <v>573</v>
+      </c>
       <c r="F110" s="79"/>
       <c r="G110" s="56" t="s">
         <v>8</v>
@@ -12190,14 +12201,16 @@
       <c r="AE110" s="6"/>
       <c r="AF110" s="6"/>
     </row>
-    <row r="111" spans="1:32" ht="17">
+    <row r="111" spans="1:32">
       <c r="A111" s="1" t="s">
         <v>449</v>
       </c>
       <c r="B111" s="125"/>
       <c r="C111" s="125"/>
       <c r="D111" s="125"/>
-      <c r="E111" s="124"/>
+      <c r="E111" s="124" t="s">
+        <v>572</v>
+      </c>
       <c r="F111" s="79"/>
       <c r="G111" s="8" t="s">
         <v>23</v>
@@ -12247,14 +12260,16 @@
       <c r="AE111" s="6"/>
       <c r="AF111" s="6"/>
     </row>
-    <row r="112" spans="1:32" ht="17">
+    <row r="112" spans="1:32">
       <c r="A112" s="1" t="s">
         <v>450</v>
       </c>
       <c r="B112" s="125"/>
       <c r="C112" s="125"/>
       <c r="D112" s="125"/>
-      <c r="E112" s="124"/>
+      <c r="E112" s="124" t="s">
+        <v>574</v>
+      </c>
       <c r="F112" s="79"/>
       <c r="G112" s="56" t="s">
         <v>30</v>
@@ -12302,7 +12317,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="113" spans="1:32" ht="17">
+    <row r="113" spans="1:32" ht="14">
       <c r="A113" s="1"/>
       <c r="B113" s="125"/>
       <c r="C113" s="125"/>
@@ -12397,7 +12412,7 @@
       <c r="AE114" s="6"/>
       <c r="AF114" s="6"/>
     </row>
-    <row r="115" spans="1:32" ht="18">
+    <row r="115" spans="1:32" ht="17">
       <c r="F115" s="97" t="s">
         <v>34</v>
       </c>
@@ -12462,7 +12477,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="116" spans="1:32" ht="18">
+    <row r="116" spans="1:32" ht="17">
       <c r="F116" s="84" t="s">
         <v>33</v>
       </c>
@@ -12521,7 +12536,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:32" ht="18">
+    <row r="117" spans="1:32" ht="17">
       <c r="F117" s="84" t="s">
         <v>32</v>
       </c>
@@ -12583,7 +12598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:32" ht="18">
+    <row r="118" spans="1:32" ht="17">
       <c r="F118" s="84" t="s">
         <v>31</v>
       </c>
@@ -12615,7 +12630,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="119" spans="1:32" ht="18">
+    <row r="119" spans="1:32" ht="17">
       <c r="F119" s="84" t="s">
         <v>29</v>
       </c>
@@ -12855,7 +12870,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="128" spans="1:32" ht="18">
+    <row r="128" spans="1:32" ht="17">
       <c r="F128" s="84">
         <v>2</v>
       </c>
@@ -12881,7 +12896,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="129" spans="6:32" ht="18">
+    <row r="129" spans="6:32" ht="17">
       <c r="F129" s="84">
         <v>3</v>
       </c>
@@ -12907,7 +12922,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="130" spans="6:32" ht="18">
+    <row r="130" spans="6:32" ht="17">
       <c r="F130" s="84">
         <v>4</v>
       </c>
@@ -12933,7 +12948,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="131" spans="6:32" ht="18">
+    <row r="131" spans="6:32" ht="17">
       <c r="F131" s="84">
         <v>5</v>
       </c>
@@ -12959,7 +12974,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="132" spans="6:32" ht="18">
+    <row r="132" spans="6:32" ht="17">
       <c r="F132" s="84">
         <v>6</v>
       </c>
@@ -12985,7 +13000,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="133" spans="6:32" ht="18">
+    <row r="133" spans="6:32" ht="17">
       <c r="F133" s="84">
         <v>7</v>
       </c>
@@ -13008,7 +13023,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="134" spans="6:32" ht="18">
+    <row r="134" spans="6:32" ht="17">
       <c r="F134" s="84">
         <v>8</v>
       </c>
@@ -13031,7 +13046,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="135" spans="6:32" ht="18">
+    <row r="135" spans="6:32" ht="17">
       <c r="F135" s="84">
         <v>9</v>
       </c>
@@ -13054,7 +13069,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="136" spans="6:32" ht="18">
+    <row r="136" spans="6:32" ht="17">
       <c r="F136" s="84">
         <v>0</v>
       </c>
